--- a/biology/Médecine/Université_nationale_de_médecine_Bogomolets/Université_nationale_de_médecine_Bogomolets.xlsx
+++ b/biology/Médecine/Université_nationale_de_médecine_Bogomolets/Université_nationale_de_médecine_Bogomolets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_de_m%C3%A9decine_Bogomolets</t>
+          <t>Université_nationale_de_médecine_Bogomolets</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université nationale de médecine de Bogomolets est une école de médecine fondée en 1841 à Kiev, dans l'Empire russe, par le tsar russe Nicolas Ier. L'université porte le nom du physiologiste Alexandre Bogomolets et se situe au no 34 avenue de la Victoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_de_m%C3%A9decine_Bogomolets</t>
+          <t>Université_nationale_de_médecine_Bogomolets</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 29 avril 1840 / 11 mai 1840 l'empereur russe Nicolas Ier a inauguré la fondation de la faculté de médecine de l'université Saint-Vladimir de Kiev, qui est devenue plus tard l'Université de médecine.
 En 1841, les 29 premiers étudiants sont inscrits à la faculté. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_nationale_de_m%C3%A9decine_Bogomolets</t>
+          <t>Université_nationale_de_médecine_Bogomolets</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'université nationale de médecine de Bogomolets offre une formation médicale à plus de 10 000 étudiants, dont environ 1 300 étrangers venus de 56 pays. L'université emploie environ 1 200 enseignants dont un millier de diplômés en doctorat de médecine. Le diplôme de l'université est reconnu par les organisations les plus crédibles au monde comme l'Organisation mondiale de la santé et l'UNESCO.
 L'université nationale de médecine de Bogomolets se compose de 10 facultés. L'université nationale de médecine de Bogomolets possède également un institut distinct pour l'enseignement post-universitaire.
